--- a/Symphony/NOVEMBER/14.11.2021/MC Bank Statement November-2021.xlsx
+++ b/Symphony/NOVEMBER/14.11.2021/MC Bank Statement November-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -3010,6 +3010,12 @@
     <xf numFmtId="1" fontId="35" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3021,18 +3027,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3061,10 +3055,22 @@
     <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3152,12 +3158,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3826,33 +3826,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="323"/>
-      <c r="B1" s="323"/>
-      <c r="C1" s="323"/>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
+      <c r="A1" s="325"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="324"/>
-      <c r="B2" s="321" t="s">
+      <c r="A2" s="326"/>
+      <c r="B2" s="323" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="321"/>
+      <c r="C2" s="323"/>
+      <c r="D2" s="323"/>
+      <c r="E2" s="323"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="324"/>
-      <c r="B3" s="322" t="s">
+      <c r="A3" s="326"/>
+      <c r="B3" s="324" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="322"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="322"/>
+      <c r="C3" s="324"/>
+      <c r="D3" s="324"/>
+      <c r="E3" s="324"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="324"/>
+      <c r="A4" s="326"/>
       <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
@@ -3870,7 +3870,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="324"/>
+      <c r="A5" s="326"/>
       <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="324"/>
+      <c r="A6" s="326"/>
       <c r="B6" s="28"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -3900,7 +3900,7 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="324"/>
+      <c r="A7" s="326"/>
       <c r="B7" s="28" t="s">
         <v>68</v>
       </c>
@@ -3919,7 +3919,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="324"/>
+      <c r="A8" s="326"/>
       <c r="B8" s="28" t="s">
         <v>69</v>
       </c>
@@ -3938,7 +3938,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="324"/>
+      <c r="A9" s="326"/>
       <c r="B9" s="28" t="s">
         <v>71</v>
       </c>
@@ -3957,7 +3957,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="324"/>
+      <c r="A10" s="326"/>
       <c r="B10" s="28" t="s">
         <v>72</v>
       </c>
@@ -3976,7 +3976,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="324"/>
+      <c r="A11" s="326"/>
       <c r="B11" s="28" t="s">
         <v>73</v>
       </c>
@@ -3995,7 +3995,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="324"/>
+      <c r="A12" s="326"/>
       <c r="B12" s="28" t="s">
         <v>74</v>
       </c>
@@ -4014,7 +4014,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="324"/>
+      <c r="A13" s="326"/>
       <c r="B13" s="28" t="s">
         <v>75</v>
       </c>
@@ -4033,7 +4033,7 @@
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="324"/>
+      <c r="A14" s="326"/>
       <c r="B14" s="28" t="s">
         <v>76</v>
       </c>
@@ -4052,7 +4052,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="324"/>
+      <c r="A15" s="326"/>
       <c r="B15" s="28" t="s">
         <v>77</v>
       </c>
@@ -4071,7 +4071,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="324"/>
+      <c r="A16" s="326"/>
       <c r="B16" s="28"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -4084,7 +4084,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="324"/>
+      <c r="A17" s="326"/>
       <c r="B17" s="28"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -4097,7 +4097,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="324"/>
+      <c r="A18" s="326"/>
       <c r="B18" s="28"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -4110,7 +4110,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="324"/>
+      <c r="A19" s="326"/>
       <c r="B19" s="28"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -4123,7 +4123,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="324"/>
+      <c r="A20" s="326"/>
       <c r="B20" s="28"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -4136,7 +4136,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="324"/>
+      <c r="A21" s="326"/>
       <c r="B21" s="28"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -4149,7 +4149,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="324"/>
+      <c r="A22" s="326"/>
       <c r="B22" s="28"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -4162,7 +4162,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="324"/>
+      <c r="A23" s="326"/>
       <c r="B23" s="28"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -4175,7 +4175,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="324"/>
+      <c r="A24" s="326"/>
       <c r="B24" s="28"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -4188,7 +4188,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="324"/>
+      <c r="A25" s="326"/>
       <c r="B25" s="28"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -4201,7 +4201,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="324"/>
+      <c r="A26" s="326"/>
       <c r="B26" s="28"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -4214,7 +4214,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="324"/>
+      <c r="A27" s="326"/>
       <c r="B27" s="28"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -4227,7 +4227,7 @@
       <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="324"/>
+      <c r="A28" s="326"/>
       <c r="B28" s="28"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -4240,7 +4240,7 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="324"/>
+      <c r="A29" s="326"/>
       <c r="B29" s="28"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
@@ -4253,7 +4253,7 @@
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="324"/>
+      <c r="A30" s="326"/>
       <c r="B30" s="28"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
@@ -4266,7 +4266,7 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="324"/>
+      <c r="A31" s="326"/>
       <c r="B31" s="28"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -4279,7 +4279,7 @@
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="324"/>
+      <c r="A32" s="326"/>
       <c r="B32" s="28"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
@@ -4292,7 +4292,7 @@
       <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="324"/>
+      <c r="A33" s="326"/>
       <c r="B33" s="28"/>
       <c r="C33" s="27"/>
       <c r="D33" s="30"/>
@@ -4305,7 +4305,7 @@
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="324"/>
+      <c r="A34" s="326"/>
       <c r="B34" s="28"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -4318,7 +4318,7 @@
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="324"/>
+      <c r="A35" s="326"/>
       <c r="B35" s="28"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
@@ -4331,7 +4331,7 @@
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="324"/>
+      <c r="A36" s="326"/>
       <c r="B36" s="28"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -4344,7 +4344,7 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="324"/>
+      <c r="A37" s="326"/>
       <c r="B37" s="28"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
@@ -4357,7 +4357,7 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="324"/>
+      <c r="A38" s="326"/>
       <c r="B38" s="28"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -4370,7 +4370,7 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="324"/>
+      <c r="A39" s="326"/>
       <c r="B39" s="28"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
@@ -4383,7 +4383,7 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="324"/>
+      <c r="A40" s="326"/>
       <c r="B40" s="28"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
@@ -4396,7 +4396,7 @@
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="324"/>
+      <c r="A41" s="326"/>
       <c r="B41" s="28"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
@@ -4409,7 +4409,7 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="324"/>
+      <c r="A42" s="326"/>
       <c r="B42" s="28"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
@@ -4422,7 +4422,7 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="324"/>
+      <c r="A43" s="326"/>
       <c r="B43" s="28"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
@@ -4435,7 +4435,7 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="324"/>
+      <c r="A44" s="326"/>
       <c r="B44" s="28"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
@@ -4448,7 +4448,7 @@
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="324"/>
+      <c r="A45" s="326"/>
       <c r="B45" s="28"/>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
@@ -4461,7 +4461,7 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="324"/>
+      <c r="A46" s="326"/>
       <c r="B46" s="28"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
@@ -4474,7 +4474,7 @@
       <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="324"/>
+      <c r="A47" s="326"/>
       <c r="B47" s="28"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
@@ -4487,7 +4487,7 @@
       <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="324"/>
+      <c r="A48" s="326"/>
       <c r="B48" s="28"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
@@ -4500,7 +4500,7 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="324"/>
+      <c r="A49" s="326"/>
       <c r="B49" s="28"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -4513,7 +4513,7 @@
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="324"/>
+      <c r="A50" s="326"/>
       <c r="B50" s="28"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
@@ -4526,7 +4526,7 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="324"/>
+      <c r="A51" s="326"/>
       <c r="B51" s="28"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
@@ -4539,7 +4539,7 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="324"/>
+      <c r="A52" s="326"/>
       <c r="B52" s="28"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
@@ -4552,7 +4552,7 @@
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="324"/>
+      <c r="A53" s="326"/>
       <c r="B53" s="28"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
@@ -4565,7 +4565,7 @@
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="324"/>
+      <c r="A54" s="326"/>
       <c r="B54" s="28"/>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
@@ -4578,7 +4578,7 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="324"/>
+      <c r="A55" s="326"/>
       <c r="B55" s="28"/>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
@@ -4590,7 +4590,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="324"/>
+      <c r="A56" s="326"/>
       <c r="B56" s="28"/>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
@@ -4602,7 +4602,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="324"/>
+      <c r="A57" s="326"/>
       <c r="B57" s="28"/>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
@@ -4614,7 +4614,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="324"/>
+      <c r="A58" s="326"/>
       <c r="B58" s="28"/>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
@@ -4626,7 +4626,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="324"/>
+      <c r="A59" s="326"/>
       <c r="B59" s="28"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
@@ -4638,7 +4638,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="324"/>
+      <c r="A60" s="326"/>
       <c r="B60" s="28"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
@@ -4650,7 +4650,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="324"/>
+      <c r="A61" s="326"/>
       <c r="B61" s="28"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
@@ -4662,7 +4662,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="324"/>
+      <c r="A62" s="326"/>
       <c r="B62" s="28"/>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
@@ -4674,7 +4674,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="324"/>
+      <c r="A63" s="326"/>
       <c r="B63" s="28"/>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
@@ -4686,7 +4686,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="324"/>
+      <c r="A64" s="326"/>
       <c r="B64" s="28"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
@@ -4698,7 +4698,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="324"/>
+      <c r="A65" s="326"/>
       <c r="B65" s="28"/>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
@@ -4710,7 +4710,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="324"/>
+      <c r="A66" s="326"/>
       <c r="B66" s="28"/>
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
@@ -4722,7 +4722,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="324"/>
+      <c r="A67" s="326"/>
       <c r="B67" s="28"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -4734,7 +4734,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="324"/>
+      <c r="A68" s="326"/>
       <c r="B68" s="28"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -4746,7 +4746,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="324"/>
+      <c r="A69" s="326"/>
       <c r="B69" s="28"/>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
@@ -4758,7 +4758,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="324"/>
+      <c r="A70" s="326"/>
       <c r="B70" s="28"/>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
@@ -4770,7 +4770,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="324"/>
+      <c r="A71" s="326"/>
       <c r="B71" s="28"/>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
@@ -4782,7 +4782,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="324"/>
+      <c r="A72" s="326"/>
       <c r="B72" s="28"/>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
@@ -4794,7 +4794,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="324"/>
+      <c r="A73" s="326"/>
       <c r="B73" s="28"/>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
@@ -4806,7 +4806,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="324"/>
+      <c r="A74" s="326"/>
       <c r="B74" s="28"/>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
@@ -4818,7 +4818,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="324"/>
+      <c r="A75" s="326"/>
       <c r="B75" s="28"/>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
@@ -4830,7 +4830,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="324"/>
+      <c r="A76" s="326"/>
       <c r="B76" s="28"/>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
@@ -4842,7 +4842,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="324"/>
+      <c r="A77" s="326"/>
       <c r="B77" s="28"/>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
@@ -4854,7 +4854,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="324"/>
+      <c r="A78" s="326"/>
       <c r="B78" s="28"/>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
@@ -4866,7 +4866,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="324"/>
+      <c r="A79" s="326"/>
       <c r="B79" s="28"/>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
@@ -4878,7 +4878,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="324"/>
+      <c r="A80" s="326"/>
       <c r="B80" s="28"/>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
@@ -4890,7 +4890,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="324"/>
+      <c r="A81" s="326"/>
       <c r="B81" s="28"/>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
@@ -4902,7 +4902,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="324"/>
+      <c r="A82" s="326"/>
       <c r="B82" s="28"/>
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
@@ -4914,7 +4914,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="324"/>
+      <c r="A83" s="326"/>
       <c r="B83" s="33"/>
       <c r="C83" s="29">
         <f>SUM(C5:C72)</f>
@@ -4971,33 +4971,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="323"/>
-      <c r="B1" s="323"/>
-      <c r="C1" s="323"/>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
+      <c r="A1" s="325"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="324"/>
-      <c r="B2" s="321" t="s">
+      <c r="A2" s="326"/>
+      <c r="B2" s="323" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="321"/>
+      <c r="C2" s="323"/>
+      <c r="D2" s="323"/>
+      <c r="E2" s="323"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="324"/>
-      <c r="B3" s="322" t="s">
+      <c r="A3" s="326"/>
+      <c r="B3" s="324" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="322"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="322"/>
+      <c r="C3" s="324"/>
+      <c r="D3" s="324"/>
+      <c r="E3" s="324"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="324"/>
+      <c r="A4" s="326"/>
       <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
@@ -5015,7 +5015,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="324"/>
+      <c r="A5" s="326"/>
       <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
@@ -5033,7 +5033,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="324"/>
+      <c r="A6" s="326"/>
       <c r="B6" s="28"/>
       <c r="C6" s="293"/>
       <c r="D6" s="293"/>
@@ -5045,7 +5045,7 @@
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="324"/>
+      <c r="A7" s="326"/>
       <c r="B7" s="28" t="s">
         <v>185</v>
       </c>
@@ -5064,7 +5064,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="324"/>
+      <c r="A8" s="326"/>
       <c r="B8" s="28" t="s">
         <v>191</v>
       </c>
@@ -5083,7 +5083,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="324"/>
+      <c r="A9" s="326"/>
       <c r="B9" s="28" t="s">
         <v>192</v>
       </c>
@@ -5102,7 +5102,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="324"/>
+      <c r="A10" s="326"/>
       <c r="B10" s="28" t="s">
         <v>193</v>
       </c>
@@ -5121,7 +5121,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="324"/>
+      <c r="A11" s="326"/>
       <c r="B11" s="28" t="s">
         <v>196</v>
       </c>
@@ -5140,7 +5140,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="324"/>
+      <c r="A12" s="326"/>
       <c r="B12" s="28" t="s">
         <v>198</v>
       </c>
@@ -5159,7 +5159,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="324"/>
+      <c r="A13" s="326"/>
       <c r="B13" s="28" t="s">
         <v>200</v>
       </c>
@@ -5178,7 +5178,7 @@
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="324"/>
+      <c r="A14" s="326"/>
       <c r="B14" s="28" t="s">
         <v>203</v>
       </c>
@@ -5197,7 +5197,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="324"/>
+      <c r="A15" s="326"/>
       <c r="B15" s="28" t="s">
         <v>204</v>
       </c>
@@ -5216,7 +5216,7 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="324"/>
+      <c r="A16" s="326"/>
       <c r="B16" s="28" t="s">
         <v>206</v>
       </c>
@@ -5235,7 +5235,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="324"/>
+      <c r="A17" s="326"/>
       <c r="B17" s="28" t="s">
         <v>207</v>
       </c>
@@ -5254,7 +5254,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="324"/>
+      <c r="A18" s="326"/>
       <c r="B18" s="28" t="s">
         <v>209</v>
       </c>
@@ -5273,7 +5273,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="324"/>
+      <c r="A19" s="326"/>
       <c r="B19" s="28"/>
       <c r="C19" s="293"/>
       <c r="D19" s="296"/>
@@ -5286,7 +5286,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="324"/>
+      <c r="A20" s="326"/>
       <c r="B20" s="28"/>
       <c r="C20" s="293"/>
       <c r="D20" s="293"/>
@@ -5299,7 +5299,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="324"/>
+      <c r="A21" s="326"/>
       <c r="B21" s="28"/>
       <c r="C21" s="293"/>
       <c r="D21" s="293"/>
@@ -5312,7 +5312,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="324"/>
+      <c r="A22" s="326"/>
       <c r="B22" s="28"/>
       <c r="C22" s="293"/>
       <c r="D22" s="293"/>
@@ -5325,7 +5325,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="324"/>
+      <c r="A23" s="326"/>
       <c r="B23" s="28"/>
       <c r="C23" s="293"/>
       <c r="D23" s="293"/>
@@ -5338,7 +5338,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="324"/>
+      <c r="A24" s="326"/>
       <c r="B24" s="28"/>
       <c r="C24" s="293"/>
       <c r="D24" s="293"/>
@@ -5351,7 +5351,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="324"/>
+      <c r="A25" s="326"/>
       <c r="B25" s="28"/>
       <c r="C25" s="293"/>
       <c r="D25" s="293"/>
@@ -5364,7 +5364,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="324"/>
+      <c r="A26" s="326"/>
       <c r="B26" s="28"/>
       <c r="C26" s="293"/>
       <c r="D26" s="293"/>
@@ -5377,7 +5377,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="324"/>
+      <c r="A27" s="326"/>
       <c r="B27" s="28"/>
       <c r="C27" s="293"/>
       <c r="D27" s="293"/>
@@ -5390,7 +5390,7 @@
       <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="324"/>
+      <c r="A28" s="326"/>
       <c r="B28" s="28"/>
       <c r="C28" s="293"/>
       <c r="D28" s="293"/>
@@ -5403,7 +5403,7 @@
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="324"/>
+      <c r="A29" s="326"/>
       <c r="B29" s="28"/>
       <c r="C29" s="293"/>
       <c r="D29" s="293"/>
@@ -5416,7 +5416,7 @@
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="324"/>
+      <c r="A30" s="326"/>
       <c r="B30" s="28"/>
       <c r="C30" s="293"/>
       <c r="D30" s="293"/>
@@ -5429,7 +5429,7 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="324"/>
+      <c r="A31" s="326"/>
       <c r="B31" s="28"/>
       <c r="C31" s="293"/>
       <c r="D31" s="293"/>
@@ -5442,7 +5442,7 @@
       <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="324"/>
+      <c r="A32" s="326"/>
       <c r="B32" s="28"/>
       <c r="C32" s="293"/>
       <c r="D32" s="293"/>
@@ -5455,7 +5455,7 @@
       <c r="H32" s="23"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="324"/>
+      <c r="A33" s="326"/>
       <c r="B33" s="28"/>
       <c r="C33" s="293"/>
       <c r="D33" s="296"/>
@@ -5468,7 +5468,7 @@
       <c r="H33" s="23"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="324"/>
+      <c r="A34" s="326"/>
       <c r="B34" s="28"/>
       <c r="C34" s="293"/>
       <c r="D34" s="293"/>
@@ -5481,7 +5481,7 @@
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="324"/>
+      <c r="A35" s="326"/>
       <c r="B35" s="28"/>
       <c r="C35" s="293"/>
       <c r="D35" s="293"/>
@@ -5494,7 +5494,7 @@
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="324"/>
+      <c r="A36" s="326"/>
       <c r="B36" s="28"/>
       <c r="C36" s="293"/>
       <c r="D36" s="293"/>
@@ -5507,7 +5507,7 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="324"/>
+      <c r="A37" s="326"/>
       <c r="B37" s="28"/>
       <c r="C37" s="293"/>
       <c r="D37" s="293"/>
@@ -5520,7 +5520,7 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="324"/>
+      <c r="A38" s="326"/>
       <c r="B38" s="28"/>
       <c r="C38" s="293"/>
       <c r="D38" s="293"/>
@@ -5533,7 +5533,7 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="324"/>
+      <c r="A39" s="326"/>
       <c r="B39" s="28"/>
       <c r="C39" s="293"/>
       <c r="D39" s="293"/>
@@ -5546,7 +5546,7 @@
       <c r="H39" s="23"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="324"/>
+      <c r="A40" s="326"/>
       <c r="B40" s="28"/>
       <c r="C40" s="293"/>
       <c r="D40" s="293"/>
@@ -5559,7 +5559,7 @@
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="324"/>
+      <c r="A41" s="326"/>
       <c r="B41" s="28"/>
       <c r="C41" s="293"/>
       <c r="D41" s="293"/>
@@ -5572,7 +5572,7 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="324"/>
+      <c r="A42" s="326"/>
       <c r="B42" s="28"/>
       <c r="C42" s="293"/>
       <c r="D42" s="293"/>
@@ -5585,7 +5585,7 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="324"/>
+      <c r="A43" s="326"/>
       <c r="B43" s="28"/>
       <c r="C43" s="293"/>
       <c r="D43" s="293"/>
@@ -5598,7 +5598,7 @@
       <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="324"/>
+      <c r="A44" s="326"/>
       <c r="B44" s="28"/>
       <c r="C44" s="293"/>
       <c r="D44" s="293"/>
@@ -5611,7 +5611,7 @@
       <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="324"/>
+      <c r="A45" s="326"/>
       <c r="B45" s="28"/>
       <c r="C45" s="293"/>
       <c r="D45" s="293"/>
@@ -5624,7 +5624,7 @@
       <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="324"/>
+      <c r="A46" s="326"/>
       <c r="B46" s="28"/>
       <c r="C46" s="293"/>
       <c r="D46" s="293"/>
@@ -5637,7 +5637,7 @@
       <c r="H46" s="23"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="324"/>
+      <c r="A47" s="326"/>
       <c r="B47" s="28"/>
       <c r="C47" s="293"/>
       <c r="D47" s="293"/>
@@ -5650,7 +5650,7 @@
       <c r="H47" s="23"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="324"/>
+      <c r="A48" s="326"/>
       <c r="B48" s="28"/>
       <c r="C48" s="293"/>
       <c r="D48" s="293"/>
@@ -5663,7 +5663,7 @@
       <c r="H48" s="23"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="324"/>
+      <c r="A49" s="326"/>
       <c r="B49" s="28"/>
       <c r="C49" s="293"/>
       <c r="D49" s="293"/>
@@ -5676,7 +5676,7 @@
       <c r="H49" s="23"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="324"/>
+      <c r="A50" s="326"/>
       <c r="B50" s="28"/>
       <c r="C50" s="293"/>
       <c r="D50" s="293"/>
@@ -5689,7 +5689,7 @@
       <c r="H50" s="23"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="324"/>
+      <c r="A51" s="326"/>
       <c r="B51" s="28"/>
       <c r="C51" s="293"/>
       <c r="D51" s="293"/>
@@ -5702,7 +5702,7 @@
       <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="324"/>
+      <c r="A52" s="326"/>
       <c r="B52" s="28"/>
       <c r="C52" s="293"/>
       <c r="D52" s="293"/>
@@ -5715,7 +5715,7 @@
       <c r="H52" s="23"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="324"/>
+      <c r="A53" s="326"/>
       <c r="B53" s="28"/>
       <c r="C53" s="293"/>
       <c r="D53" s="293"/>
@@ -5728,7 +5728,7 @@
       <c r="H53" s="23"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="324"/>
+      <c r="A54" s="326"/>
       <c r="B54" s="28"/>
       <c r="C54" s="293"/>
       <c r="D54" s="293"/>
@@ -5741,7 +5741,7 @@
       <c r="H54" s="23"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="324"/>
+      <c r="A55" s="326"/>
       <c r="B55" s="28"/>
       <c r="C55" s="293"/>
       <c r="D55" s="293"/>
@@ -5753,7 +5753,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="324"/>
+      <c r="A56" s="326"/>
       <c r="B56" s="28"/>
       <c r="C56" s="293"/>
       <c r="D56" s="293"/>
@@ -5765,7 +5765,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="324"/>
+      <c r="A57" s="326"/>
       <c r="B57" s="28"/>
       <c r="C57" s="293"/>
       <c r="D57" s="293"/>
@@ -5777,7 +5777,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="324"/>
+      <c r="A58" s="326"/>
       <c r="B58" s="28"/>
       <c r="C58" s="293"/>
       <c r="D58" s="293"/>
@@ -5789,7 +5789,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="324"/>
+      <c r="A59" s="326"/>
       <c r="B59" s="28"/>
       <c r="C59" s="293"/>
       <c r="D59" s="293"/>
@@ -5801,7 +5801,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="324"/>
+      <c r="A60" s="326"/>
       <c r="B60" s="28"/>
       <c r="C60" s="293"/>
       <c r="D60" s="293"/>
@@ -5813,7 +5813,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="324"/>
+      <c r="A61" s="326"/>
       <c r="B61" s="28"/>
       <c r="C61" s="293"/>
       <c r="D61" s="293"/>
@@ -5825,7 +5825,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="324"/>
+      <c r="A62" s="326"/>
       <c r="B62" s="28"/>
       <c r="C62" s="293"/>
       <c r="D62" s="293"/>
@@ -5837,7 +5837,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="324"/>
+      <c r="A63" s="326"/>
       <c r="B63" s="28"/>
       <c r="C63" s="293"/>
       <c r="D63" s="293"/>
@@ -5849,7 +5849,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="324"/>
+      <c r="A64" s="326"/>
       <c r="B64" s="28"/>
       <c r="C64" s="293"/>
       <c r="D64" s="293"/>
@@ -5861,7 +5861,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="324"/>
+      <c r="A65" s="326"/>
       <c r="B65" s="28"/>
       <c r="C65" s="293"/>
       <c r="D65" s="293"/>
@@ -5873,7 +5873,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="324"/>
+      <c r="A66" s="326"/>
       <c r="B66" s="28"/>
       <c r="C66" s="293"/>
       <c r="D66" s="293"/>
@@ -5885,7 +5885,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="324"/>
+      <c r="A67" s="326"/>
       <c r="B67" s="28"/>
       <c r="C67" s="293"/>
       <c r="D67" s="293"/>
@@ -5897,7 +5897,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="324"/>
+      <c r="A68" s="326"/>
       <c r="B68" s="28"/>
       <c r="C68" s="293"/>
       <c r="D68" s="293"/>
@@ -5909,7 +5909,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="324"/>
+      <c r="A69" s="326"/>
       <c r="B69" s="28"/>
       <c r="C69" s="293"/>
       <c r="D69" s="293"/>
@@ -5921,7 +5921,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="324"/>
+      <c r="A70" s="326"/>
       <c r="B70" s="28"/>
       <c r="C70" s="293"/>
       <c r="D70" s="293"/>
@@ -5933,7 +5933,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="324"/>
+      <c r="A71" s="326"/>
       <c r="B71" s="28"/>
       <c r="C71" s="293"/>
       <c r="D71" s="293"/>
@@ -5945,7 +5945,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="324"/>
+      <c r="A72" s="326"/>
       <c r="B72" s="28"/>
       <c r="C72" s="293"/>
       <c r="D72" s="293"/>
@@ -5957,7 +5957,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="324"/>
+      <c r="A73" s="326"/>
       <c r="B73" s="28"/>
       <c r="C73" s="293"/>
       <c r="D73" s="293"/>
@@ -5969,7 +5969,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="324"/>
+      <c r="A74" s="326"/>
       <c r="B74" s="28"/>
       <c r="C74" s="293"/>
       <c r="D74" s="293"/>
@@ -5981,7 +5981,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="324"/>
+      <c r="A75" s="326"/>
       <c r="B75" s="28"/>
       <c r="C75" s="293"/>
       <c r="D75" s="293"/>
@@ -5993,7 +5993,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="324"/>
+      <c r="A76" s="326"/>
       <c r="B76" s="28"/>
       <c r="C76" s="293"/>
       <c r="D76" s="293"/>
@@ -6005,7 +6005,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="324"/>
+      <c r="A77" s="326"/>
       <c r="B77" s="28"/>
       <c r="C77" s="293"/>
       <c r="D77" s="293"/>
@@ -6017,7 +6017,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="324"/>
+      <c r="A78" s="326"/>
       <c r="B78" s="28"/>
       <c r="C78" s="293"/>
       <c r="D78" s="293"/>
@@ -6029,7 +6029,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="324"/>
+      <c r="A79" s="326"/>
       <c r="B79" s="28"/>
       <c r="C79" s="293"/>
       <c r="D79" s="293"/>
@@ -6041,7 +6041,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="324"/>
+      <c r="A80" s="326"/>
       <c r="B80" s="28"/>
       <c r="C80" s="293"/>
       <c r="D80" s="293"/>
@@ -6053,7 +6053,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="324"/>
+      <c r="A81" s="326"/>
       <c r="B81" s="28"/>
       <c r="C81" s="293"/>
       <c r="D81" s="293"/>
@@ -6065,7 +6065,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="324"/>
+      <c r="A82" s="326"/>
       <c r="B82" s="28"/>
       <c r="C82" s="293"/>
       <c r="D82" s="293"/>
@@ -6077,7 +6077,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="324"/>
+      <c r="A83" s="326"/>
       <c r="B83" s="33"/>
       <c r="C83" s="295">
         <f>SUM(C5:C72)</f>
@@ -6129,67 +6129,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="329" t="s">
+      <c r="A1" s="327" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="329"/>
-      <c r="C1" s="329"/>
-      <c r="D1" s="329"/>
-      <c r="E1" s="329"/>
-      <c r="F1" s="329"/>
-      <c r="G1" s="329"/>
-      <c r="H1" s="329"/>
-      <c r="I1" s="329"/>
-      <c r="J1" s="329"/>
-      <c r="K1" s="329"/>
-      <c r="L1" s="329"/>
-      <c r="M1" s="329"/>
-      <c r="N1" s="329"/>
-      <c r="O1" s="329"/>
-      <c r="P1" s="329"/>
-      <c r="Q1" s="329"/>
+      <c r="B1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327"/>
+      <c r="I1" s="327"/>
+      <c r="J1" s="327"/>
+      <c r="K1" s="327"/>
+      <c r="L1" s="327"/>
+      <c r="M1" s="327"/>
+      <c r="N1" s="327"/>
+      <c r="O1" s="327"/>
+      <c r="P1" s="327"/>
+      <c r="Q1" s="327"/>
     </row>
     <row r="2" spans="1:24" s="81" customFormat="1" ht="18">
-      <c r="A2" s="330" t="s">
+      <c r="A2" s="328" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="330"/>
-      <c r="C2" s="330"/>
-      <c r="D2" s="330"/>
-      <c r="E2" s="330"/>
-      <c r="F2" s="330"/>
-      <c r="G2" s="330"/>
-      <c r="H2" s="330"/>
-      <c r="I2" s="330"/>
-      <c r="J2" s="330"/>
-      <c r="K2" s="330"/>
-      <c r="L2" s="330"/>
-      <c r="M2" s="330"/>
-      <c r="N2" s="330"/>
-      <c r="O2" s="330"/>
-      <c r="P2" s="330"/>
-      <c r="Q2" s="330"/>
+      <c r="B2" s="328"/>
+      <c r="C2" s="328"/>
+      <c r="D2" s="328"/>
+      <c r="E2" s="328"/>
+      <c r="F2" s="328"/>
+      <c r="G2" s="328"/>
+      <c r="H2" s="328"/>
+      <c r="I2" s="328"/>
+      <c r="J2" s="328"/>
+      <c r="K2" s="328"/>
+      <c r="L2" s="328"/>
+      <c r="M2" s="328"/>
+      <c r="N2" s="328"/>
+      <c r="O2" s="328"/>
+      <c r="P2" s="328"/>
+      <c r="Q2" s="328"/>
     </row>
     <row r="3" spans="1:24" s="82" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="331" t="s">
+      <c r="A3" s="329" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="332"/>
-      <c r="C3" s="332"/>
-      <c r="D3" s="332"/>
-      <c r="E3" s="332"/>
-      <c r="F3" s="332"/>
-      <c r="G3" s="332"/>
-      <c r="H3" s="332"/>
-      <c r="I3" s="332"/>
-      <c r="J3" s="332"/>
-      <c r="K3" s="332"/>
-      <c r="L3" s="332"/>
-      <c r="M3" s="332"/>
-      <c r="N3" s="332"/>
-      <c r="O3" s="332"/>
-      <c r="P3" s="332"/>
-      <c r="Q3" s="333"/>
+      <c r="B3" s="330"/>
+      <c r="C3" s="330"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="330"/>
+      <c r="G3" s="330"/>
+      <c r="H3" s="330"/>
+      <c r="I3" s="330"/>
+      <c r="J3" s="330"/>
+      <c r="K3" s="330"/>
+      <c r="L3" s="330"/>
+      <c r="M3" s="330"/>
+      <c r="N3" s="330"/>
+      <c r="O3" s="330"/>
+      <c r="P3" s="330"/>
+      <c r="Q3" s="331"/>
       <c r="S3" s="65"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6198,49 +6198,49 @@
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" s="83" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="334" t="s">
+      <c r="A4" s="332" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="336" t="s">
+      <c r="B4" s="334" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="325" t="s">
+      <c r="C4" s="336" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="325" t="s">
+      <c r="D4" s="336" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="325" t="s">
+      <c r="E4" s="336" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="325" t="s">
+      <c r="F4" s="336" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="325" t="s">
+      <c r="G4" s="336" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="325" t="s">
+      <c r="H4" s="336" t="s">
         <v>165</v>
       </c>
-      <c r="I4" s="325" t="s">
+      <c r="I4" s="336" t="s">
         <v>163</v>
       </c>
-      <c r="J4" s="325" t="s">
+      <c r="J4" s="336" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="325" t="s">
+      <c r="K4" s="336" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="325" t="s">
+      <c r="L4" s="336" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="325" t="s">
+      <c r="M4" s="336" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="325" t="s">
+      <c r="N4" s="336" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="327" t="s">
+      <c r="O4" s="340" t="s">
         <v>54</v>
       </c>
       <c r="P4" s="338" t="s">
@@ -6256,21 +6256,21 @@
       <c r="W4" s="85"/>
     </row>
     <row r="5" spans="1:24" s="83" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="335"/>
-      <c r="B5" s="337"/>
-      <c r="C5" s="326"/>
-      <c r="D5" s="326"/>
-      <c r="E5" s="326"/>
-      <c r="F5" s="326"/>
-      <c r="G5" s="326"/>
-      <c r="H5" s="326"/>
-      <c r="I5" s="326"/>
-      <c r="J5" s="326"/>
-      <c r="K5" s="326"/>
-      <c r="L5" s="326"/>
-      <c r="M5" s="326"/>
-      <c r="N5" s="326"/>
-      <c r="O5" s="328"/>
+      <c r="A5" s="333"/>
+      <c r="B5" s="335"/>
+      <c r="C5" s="337"/>
+      <c r="D5" s="337"/>
+      <c r="E5" s="337"/>
+      <c r="F5" s="337"/>
+      <c r="G5" s="337"/>
+      <c r="H5" s="337"/>
+      <c r="I5" s="337"/>
+      <c r="J5" s="337"/>
+      <c r="K5" s="337"/>
+      <c r="L5" s="337"/>
+      <c r="M5" s="337"/>
+      <c r="N5" s="337"/>
+      <c r="O5" s="341"/>
       <c r="P5" s="339"/>
       <c r="Q5" s="145" t="s">
         <v>55</v>
@@ -9324,8 +9324,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
@@ -9343,6 +9341,8 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9356,8 +9356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9384,14 +9384,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="344" t="s">
+      <c r="A1" s="346" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="345"/>
-      <c r="C1" s="345"/>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="346"/>
+      <c r="B1" s="347"/>
+      <c r="C1" s="347"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="348"/>
       <c r="G1" s="76"/>
       <c r="H1" s="76"/>
       <c r="I1" s="161"/>
@@ -9485,14 +9485,14 @@
       <c r="CS1" s="156"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="347" t="s">
+      <c r="A2" s="349" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="348"/>
-      <c r="C2" s="348"/>
-      <c r="D2" s="348"/>
-      <c r="E2" s="348"/>
-      <c r="F2" s="349"/>
+      <c r="B2" s="350"/>
+      <c r="C2" s="350"/>
+      <c r="D2" s="350"/>
+      <c r="E2" s="350"/>
+      <c r="F2" s="351"/>
       <c r="G2" s="76"/>
       <c r="H2" s="76"/>
       <c r="I2" s="161"/>
@@ -9586,14 +9586,14 @@
       <c r="CS2" s="156"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="350" t="s">
+      <c r="A3" s="352" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="351"/>
-      <c r="C3" s="351"/>
-      <c r="D3" s="351"/>
-      <c r="E3" s="351"/>
-      <c r="F3" s="352"/>
+      <c r="B3" s="353"/>
+      <c r="C3" s="353"/>
+      <c r="D3" s="353"/>
+      <c r="E3" s="353"/>
+      <c r="F3" s="354"/>
       <c r="G3" s="76"/>
       <c r="H3" s="76"/>
       <c r="I3" s="161"/>
@@ -11039,14 +11039,14 @@
         <v>293840</v>
       </c>
       <c r="C16" s="67">
-        <v>295790</v>
+        <v>367290</v>
       </c>
       <c r="D16" s="64">
         <v>1230</v>
       </c>
       <c r="E16" s="64">
         <f t="shared" si="0"/>
-        <v>297020</v>
+        <v>368520</v>
       </c>
       <c r="F16" s="256"/>
       <c r="G16" s="275">
@@ -12785,7 +12785,7 @@
       </c>
       <c r="C33" s="301">
         <f>SUM(C5:C32)</f>
-        <v>5131830</v>
+        <v>5203330</v>
       </c>
       <c r="D33" s="300">
         <f>SUM(D5:D32)</f>
@@ -12793,11 +12793,11 @@
       </c>
       <c r="E33" s="300">
         <f>SUM(E5:E32)</f>
-        <v>5162260</v>
+        <v>5233760</v>
       </c>
       <c r="F33" s="300">
         <f>B33-E33</f>
-        <v>-61410</v>
+        <v>-132910</v>
       </c>
       <c r="G33" s="302"/>
       <c r="H33" s="157"/>
@@ -12992,12 +12992,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="151"/>
-      <c r="B35" s="342" t="s">
+      <c r="B35" s="344" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="342"/>
-      <c r="D35" s="342"/>
-      <c r="E35" s="342"/>
+      <c r="C35" s="344"/>
+      <c r="D35" s="344"/>
+      <c r="E35" s="344"/>
       <c r="F35" s="152"/>
       <c r="G35" s="157"/>
       <c r="H35" s="157"/>
@@ -13868,10 +13868,10 @@
       <c r="D43" s="229"/>
       <c r="E43" s="195"/>
       <c r="F43" s="152"/>
-      <c r="G43" s="343"/>
-      <c r="H43" s="343"/>
-      <c r="I43" s="343"/>
-      <c r="J43" s="343"/>
+      <c r="G43" s="345"/>
+      <c r="H43" s="345"/>
+      <c r="I43" s="345"/>
+      <c r="J43" s="345"/>
       <c r="K43" s="76"/>
       <c r="L43" s="161"/>
       <c r="M43" s="76"/>
@@ -14193,10 +14193,10 @@
         <v>1718911905</v>
       </c>
       <c r="D46" s="231">
-        <v>559940</v>
+        <v>509940</v>
       </c>
       <c r="E46" s="204" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F46" s="149"/>
       <c r="G46" s="156"/>
@@ -14559,10 +14559,10 @@
         <v>1711460131</v>
       </c>
       <c r="D49" s="232">
-        <v>218030</v>
+        <v>198540</v>
       </c>
       <c r="E49" s="196" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F49" s="150"/>
       <c r="G49" s="156"/>
@@ -14925,10 +14925,10 @@
         <v>1739791780</v>
       </c>
       <c r="D52" s="232">
-        <v>16330</v>
+        <v>15850</v>
       </c>
       <c r="E52" s="196" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F52" s="150"/>
       <c r="G52" s="156"/>
@@ -15047,10 +15047,10 @@
         <v>1725821212</v>
       </c>
       <c r="D53" s="232">
-        <v>33950</v>
+        <v>32420</v>
       </c>
       <c r="E53" s="198" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F53" s="150"/>
       <c r="G53" s="156"/>
@@ -18626,17 +18626,17 @@
     </row>
     <row r="84" spans="1:97">
       <c r="A84" s="249" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="B84" s="69" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="C84" s="134"/>
       <c r="D84" s="232">
-        <v>5000</v>
-      </c>
-      <c r="E84" s="197" t="s">
-        <v>209</v>
+        <v>200</v>
+      </c>
+      <c r="E84" s="196" t="s">
+        <v>207</v>
       </c>
       <c r="F84" s="152"/>
       <c r="G84" s="156"/>
@@ -18743,11 +18743,19 @@
       <c r="CS84" s="156"/>
     </row>
     <row r="85" spans="1:97">
-      <c r="A85" s="249"/>
-      <c r="B85" s="69"/>
+      <c r="A85" s="249" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" s="69" t="s">
+        <v>145</v>
+      </c>
       <c r="C85" s="134"/>
-      <c r="D85" s="232"/>
-      <c r="E85" s="196"/>
+      <c r="D85" s="232">
+        <v>5000</v>
+      </c>
+      <c r="E85" s="197" t="s">
+        <v>209</v>
+      </c>
       <c r="F85" s="152"/>
       <c r="G85" s="156"/>
       <c r="H85" s="208"/>
@@ -18963,19 +18971,11 @@
       <c r="CS86" s="156"/>
     </row>
     <row r="87" spans="1:97">
-      <c r="A87" s="249" t="s">
-        <v>202</v>
-      </c>
-      <c r="B87" s="69" t="s">
-        <v>201</v>
-      </c>
+      <c r="A87" s="249"/>
+      <c r="B87" s="69"/>
       <c r="C87" s="134"/>
-      <c r="D87" s="232">
-        <v>200</v>
-      </c>
-      <c r="E87" s="196" t="s">
-        <v>207</v>
-      </c>
+      <c r="D87" s="232"/>
+      <c r="E87" s="196"/>
       <c r="F87" s="150"/>
       <c r="G87" s="156"/>
       <c r="H87" s="208" t="s">
@@ -22333,14 +22333,14 @@
       <c r="CS118" s="156"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="340" t="s">
+      <c r="A119" s="342" t="s">
         <v>41</v>
       </c>
-      <c r="B119" s="341"/>
-      <c r="C119" s="353"/>
+      <c r="B119" s="343"/>
+      <c r="C119" s="355"/>
       <c r="D119" s="235">
         <f>SUM(D37:D118)</f>
-        <v>2122511</v>
+        <v>2051011</v>
       </c>
       <c r="E119" s="227"/>
       <c r="F119" s="156"/>
@@ -22540,14 +22540,14 @@
       <c r="CS120" s="156"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="340" t="s">
+      <c r="A121" s="342" t="s">
         <v>42</v>
       </c>
-      <c r="B121" s="341"/>
-      <c r="C121" s="341"/>
+      <c r="B121" s="343"/>
+      <c r="C121" s="343"/>
       <c r="D121" s="235">
         <f>D119+M121</f>
-        <v>2122511</v>
+        <v>2051011</v>
       </c>
       <c r="E121" s="227"/>
       <c r="F121" s="156"/>
@@ -33753,8 +33753,8 @@
       <c r="L1357" s="62"/>
     </row>
   </sheetData>
-  <sortState ref="B37:E42">
-    <sortCondition ref="B37"/>
+  <sortState ref="A79:E87">
+    <sortCondition ref="A78"/>
   </sortState>
   <mergeCells count="7">
     <mergeCell ref="A121:C121"/>
@@ -33779,8 +33779,8 @@
   </sheetPr>
   <dimension ref="A1:AC220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33799,35 +33799,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="354" t="s">
+      <c r="A1" s="356" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="355"/>
-      <c r="C1" s="355"/>
-      <c r="D1" s="355"/>
-      <c r="E1" s="356"/>
+      <c r="B1" s="357"/>
+      <c r="C1" s="357"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="358"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="363" t="s">
+      <c r="A2" s="365" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="364"/>
-      <c r="C2" s="364"/>
-      <c r="D2" s="364"/>
-      <c r="E2" s="365"/>
+      <c r="B2" s="366"/>
+      <c r="C2" s="366"/>
+      <c r="D2" s="366"/>
+      <c r="E2" s="367"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="23.25">
-      <c r="A3" s="357" t="s">
+      <c r="A3" s="359" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="358"/>
-      <c r="C3" s="358"/>
-      <c r="D3" s="358"/>
-      <c r="E3" s="359"/>
+      <c r="B3" s="360"/>
+      <c r="C3" s="360"/>
+      <c r="D3" s="360"/>
+      <c r="E3" s="361"/>
       <c r="F3" s="5"/>
       <c r="G3" s="11"/>
       <c r="H3" s="8"/>
@@ -33854,13 +33854,13 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:29" ht="26.25" customHeight="1">
-      <c r="A4" s="366" t="s">
+      <c r="A4" s="368" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="367"/>
-      <c r="C4" s="367"/>
-      <c r="D4" s="367"/>
-      <c r="E4" s="368"/>
+      <c r="B4" s="369"/>
+      <c r="C4" s="369"/>
+      <c r="D4" s="369"/>
+      <c r="E4" s="370"/>
       <c r="F4" s="5"/>
       <c r="G4" s="11"/>
       <c r="H4" s="8"/>
@@ -33887,13 +33887,13 @@
       <c r="AC4" s="8"/>
     </row>
     <row r="5" spans="1:29" ht="23.25">
-      <c r="A5" s="366" t="s">
+      <c r="A5" s="368" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="367"/>
-      <c r="C5" s="367"/>
-      <c r="D5" s="367"/>
-      <c r="E5" s="368"/>
+      <c r="B5" s="369"/>
+      <c r="C5" s="369"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="370"/>
       <c r="F5" s="5"/>
       <c r="G5" s="54"/>
       <c r="H5" s="6"/>
@@ -34005,7 +34005,7 @@
         <v>78</v>
       </c>
       <c r="E8" s="280">
-        <v>767300.03549523838</v>
+        <v>838800.03549523838</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="307"/>
@@ -34106,7 +34106,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="279">
-        <v>2122511</v>
+        <v>2051011</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="264"/>
@@ -34250,10 +34250,10 @@
       <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="1:29" ht="21.75">
-      <c r="A15" s="369" t="s">
+      <c r="A15" s="321" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="370">
+      <c r="B15" s="322">
         <v>550000</v>
       </c>
       <c r="C15" s="47"/>
@@ -34367,13 +34367,13 @@
       <c r="AC17" s="8"/>
     </row>
     <row r="18" spans="1:29" ht="22.5">
-      <c r="A18" s="360" t="s">
+      <c r="A18" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="361"/>
-      <c r="C18" s="361"/>
-      <c r="D18" s="361"/>
-      <c r="E18" s="362"/>
+      <c r="B18" s="363"/>
+      <c r="C18" s="363"/>
+      <c r="D18" s="363"/>
+      <c r="E18" s="364"/>
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="17"/>
@@ -34642,7 +34642,7 @@
         <v>175</v>
       </c>
       <c r="E25" s="60">
-        <v>34000</v>
+        <v>33000</v>
       </c>
       <c r="H25" s="37"/>
       <c r="I25" s="8"/>
@@ -34672,7 +34672,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="318">
-        <v>560000</v>
+        <v>510000</v>
       </c>
       <c r="C26" s="140"/>
       <c r="D26" s="319" t="s">
